--- a/Placas EAGLE/Embutidas/v4.3 Embutida/Project Outputs for v4.3 Embutida/v4.3 Embutida_BOM.xlsx
+++ b/Placas EAGLE/Embutidas/v4.3 Embutida/Project Outputs for v4.3 Embutida/v4.3 Embutida_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Etilometro\Eletrônica\Placas EAGLE\Embutidas\v4.3 Embutida\Project Outputs for v4.3 Embutida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92179E41-D45D-4C72-8ABD-72F8A728C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A950B5E-3DE0-43AB-8139-77A406D0FDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,16 @@
     <definedName name="Print_Titles" localSheetId="0">'v4.3 Embutida'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t/>
   </si>
@@ -280,6 +285,9 @@
   </si>
   <si>
     <t>PN</t>
+  </si>
+  <si>
+    <t>SP3232EEN-L/TR</t>
   </si>
 </sst>
 </file>
@@ -732,7 +740,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -996,7 +1004,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
